--- a/biology/Histoire de la zoologie et de la botanique/Glover_Morrill_Allen/Glover_Morrill_Allen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Glover_Morrill_Allen/Glover_Morrill_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glover Morrill Allen est un zoologiste américain, né le 8 février 1879 à Walpole dans le New Hampshire et mort le 14 février 1942.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du révérend Nathaniel Glover Allen et d'Harriet Ann née Schouler. Il fait ses études à l'université Harvard avant d'y assurer un poste de maître assistant et d'occuper la fonction de conservateur des mammifères au Museum of Comparative Zoology.
 Il fait de nombreux voyages en Amérique centrale et en Amérique du Sud, en Afrique de l'Ouest, dans la région du Nil, au Congo belge et en Australie.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 17 septembre 2005).
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Italie CiNii Espagne Pays-Bas Pologne Israël NUKAT Vatican Australie Norvège Tchéquie Grèce WorldCat 
